--- a/June2021/11.06.2021/Bank Statement.xlsx
+++ b/June2021/11.06.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -823,9 +823,6 @@
     <t>Natore House.</t>
   </si>
   <si>
-    <t>Date:</t>
-  </si>
-  <si>
     <t>Repair HD</t>
   </si>
   <si>
@@ -887,6 +884,9 @@
   </si>
   <si>
     <t>12.06.2021</t>
+  </si>
+  <si>
+    <t>Date: 14/06/2021</t>
   </si>
 </sst>
 </file>
@@ -3066,12 +3066,57 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3088,51 +3133,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3862,70 +3862,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="325" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
-      <c r="N1" s="335"/>
-      <c r="O1" s="335"/>
-      <c r="P1" s="335"/>
-      <c r="Q1" s="335"/>
-      <c r="R1" s="335"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="325"/>
+      <c r="Q1" s="325"/>
+      <c r="R1" s="325"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="326" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="336"/>
-      <c r="C2" s="336"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336"/>
-      <c r="L2" s="336"/>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
-      <c r="Q2" s="336"/>
-      <c r="R2" s="336"/>
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326"/>
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="326"/>
+      <c r="N2" s="326"/>
+      <c r="O2" s="326"/>
+      <c r="P2" s="326"/>
+      <c r="Q2" s="326"/>
+      <c r="R2" s="326"/>
     </row>
     <row r="3" spans="1:25" s="93" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="343" t="s">
+      <c r="A3" s="337" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="344"/>
-      <c r="F3" s="344"/>
-      <c r="G3" s="344"/>
-      <c r="H3" s="344"/>
-      <c r="I3" s="344"/>
-      <c r="J3" s="344"/>
-      <c r="K3" s="344"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
-      <c r="N3" s="344"/>
-      <c r="O3" s="344"/>
-      <c r="P3" s="344"/>
-      <c r="Q3" s="344"/>
-      <c r="R3" s="345"/>
+      <c r="B3" s="338"/>
+      <c r="C3" s="338"/>
+      <c r="D3" s="338"/>
+      <c r="E3" s="338"/>
+      <c r="F3" s="338"/>
+      <c r="G3" s="338"/>
+      <c r="H3" s="338"/>
+      <c r="I3" s="338"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="338"/>
+      <c r="L3" s="338"/>
+      <c r="M3" s="338"/>
+      <c r="N3" s="338"/>
+      <c r="O3" s="338"/>
+      <c r="P3" s="338"/>
+      <c r="Q3" s="338"/>
+      <c r="R3" s="339"/>
       <c r="T3" s="94"/>
       <c r="U3" s="95"/>
       <c r="V3" s="95"/>
@@ -3934,55 +3934,55 @@
       <c r="Y3" s="96"/>
     </row>
     <row r="4" spans="1:25" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="337" t="s">
+      <c r="A4" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="339" t="s">
+      <c r="B4" s="329" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="339" t="s">
+      <c r="C4" s="329" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="333" t="s">
+      <c r="D4" s="331" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="333" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="333" t="s">
+      <c r="E4" s="331" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="331" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="333" t="s">
+      <c r="G4" s="331" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="333" t="s">
+      <c r="H4" s="331" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="333" t="s">
+      <c r="I4" s="331" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="333" t="s">
+      <c r="J4" s="331" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="346" t="s">
+      <c r="K4" s="340" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="325" t="s">
+      <c r="L4" s="333" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="327" t="s">
+      <c r="M4" s="342" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="329" t="s">
+      <c r="N4" s="344" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="331" t="s">
+      <c r="O4" s="346" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="325" t="s">
+      <c r="P4" s="333" t="s">
         <v>122</v>
       </c>
-      <c r="Q4" s="341" t="s">
+      <c r="Q4" s="335" t="s">
         <v>123</v>
       </c>
       <c r="R4" s="286" t="s">
@@ -3995,23 +3995,23 @@
       <c r="X4" s="95"/>
     </row>
     <row r="5" spans="1:25" s="96" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="338"/>
-      <c r="B5" s="340"/>
-      <c r="C5" s="340"/>
-      <c r="D5" s="334"/>
-      <c r="E5" s="334"/>
-      <c r="F5" s="334"/>
-      <c r="G5" s="334"/>
-      <c r="H5" s="334"/>
-      <c r="I5" s="334"/>
-      <c r="J5" s="334"/>
-      <c r="K5" s="347"/>
-      <c r="L5" s="326"/>
-      <c r="M5" s="328"/>
-      <c r="N5" s="330"/>
-      <c r="O5" s="332"/>
-      <c r="P5" s="326"/>
-      <c r="Q5" s="342"/>
+      <c r="A5" s="328"/>
+      <c r="B5" s="330"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="332"/>
+      <c r="J5" s="332"/>
+      <c r="K5" s="341"/>
+      <c r="L5" s="334"/>
+      <c r="M5" s="343"/>
+      <c r="N5" s="345"/>
+      <c r="O5" s="347"/>
+      <c r="P5" s="334"/>
+      <c r="Q5" s="336"/>
       <c r="R5" s="287" t="s">
         <v>32</v>
       </c>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="6" spans="1:25" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="295" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="296"/>
       <c r="C6" s="297"/>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="7" spans="1:25" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="295" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="296"/>
       <c r="C7" s="297"/>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="8" spans="1:25" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="295" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="299"/>
       <c r="C8" s="300"/>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="9" spans="1:25" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="295" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="299"/>
       <c r="C9" s="300"/>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="10" spans="1:25" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="295" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="299"/>
       <c r="C10" s="300"/>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="11" spans="1:25" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="295" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="299"/>
       <c r="C11" s="300">
@@ -4230,7 +4230,7 @@
     </row>
     <row r="12" spans="1:25" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="295" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" s="299"/>
       <c r="C12" s="300">
@@ -4265,7 +4265,7 @@
     </row>
     <row r="13" spans="1:25" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="295" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" s="299"/>
       <c r="C13" s="300"/>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="14" spans="1:25" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="295" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" s="299"/>
       <c r="C14" s="300">
@@ -4335,7 +4335,7 @@
     </row>
     <row r="15" spans="1:25" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="295" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="299"/>
       <c r="C15" s="300"/>
@@ -6981,6 +6981,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -6997,10 +7001,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7146,7 +7146,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="47">
         <v>599000</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="47">
         <v>202000</v>
@@ -7206,7 +7206,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="55">
         <v>149000</v>
@@ -7236,7 +7236,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="55">
         <v>0</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="55">
         <v>444000</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="59">
         <v>290000</v>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="59">
         <v>250000</v>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" s="61">
         <v>0</v>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="62">
         <v>202000</v>
@@ -7414,7 +7414,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="43">
         <v>115000</v>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="47">
         <v>0</v>
@@ -9002,7 +9002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F18"/>
     </sheetView>
   </sheetViews>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="4" spans="2:13" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="355" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="356"/>
       <c r="D4" s="356"/>
@@ -9214,7 +9214,7 @@
       <c r="F12" s="83"/>
       <c r="G12" s="20"/>
       <c r="K12" s="120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L12" s="159" t="s">
         <v>92</v>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="J13" s="118"/>
       <c r="K13" s="120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L13" s="159" t="s">
         <v>99</v>
@@ -9274,7 +9274,7 @@
     </row>
     <row r="15" spans="2:13" ht="21.75" x14ac:dyDescent="0.3">
       <c r="B15" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="35">
         <v>300000</v>
@@ -9454,7 +9454,7 @@
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
       <c r="F27" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -9533,8 +9533,8 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9645,7 +9645,7 @@
     </row>
     <row r="5" spans="1:22" s="122" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="380" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="381"/>
       <c r="C5" s="166"/>
@@ -9905,7 +9905,7 @@
       <c r="P11" s="143"/>
       <c r="Q11" s="148"/>
       <c r="S11" s="121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T11" s="161" t="s">
         <v>136</v>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="Q13" s="148"/>
       <c r="T13" s="161" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U13" s="161">
         <v>497</v>
@@ -10287,7 +10287,7 @@
         <v>148</v>
       </c>
       <c r="C22" s="124" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" s="151"/>
       <c r="E22" s="139"/>
@@ -10392,7 +10392,7 @@
       </c>
       <c r="B25" s="140"/>
       <c r="C25" s="124" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" s="151"/>
       <c r="E25" s="139"/>
@@ -10408,7 +10408,7 @@
         <v>25</v>
       </c>
       <c r="O25" s="143">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P25" s="143">
         <v>9</v>
@@ -10540,7 +10540,7 @@
       </c>
       <c r="O29" s="174">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P29" s="174">
         <f t="shared" si="0"/>
@@ -12732,8 +12732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AE60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="3" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="393" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C3" s="394"/>
       <c r="D3" s="394"/>
